--- a/0_0_Data/3_Naive_Forecaster_Data/1_YoY_Forecast_Vectors/forecast_series_TRDBAL_yoy_AVERAGE_10_9_full.xlsx
+++ b/0_0_Data/3_Naive_Forecaster_Data/1_YoY_Forecast_Vectors/forecast_series_TRDBAL_yoy_AVERAGE_10_9_full.xlsx
@@ -392,7 +392,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E53"/>
+  <dimension ref="A1:E52"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -417,18 +417,21 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="2">
-        <v>39400</v>
+        <v>39583</v>
       </c>
       <c r="B2">
-        <v>2007</v>
+        <v>2008</v>
       </c>
       <c r="D2">
-        <v>2008</v>
+        <v>2009</v>
+      </c>
+      <c r="E2">
+        <v>-0.3422723562191532</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="2">
-        <v>39583</v>
+        <v>39765</v>
       </c>
       <c r="B3">
         <v>2008</v>
@@ -437,26 +440,29 @@
         <v>2009</v>
       </c>
       <c r="E3">
-        <v>0.7015182403732778</v>
+        <v>0.4944284391569687</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="2">
-        <v>39765</v>
+        <v>39948</v>
       </c>
       <c r="B4">
-        <v>2008</v>
+        <v>2009</v>
+      </c>
+      <c r="C4">
+        <v>-0.5037688924316441</v>
       </c>
       <c r="D4">
-        <v>2009</v>
+        <v>2010</v>
       </c>
       <c r="E4">
-        <v>-0.7420476828353562</v>
+        <v>-0.467076459743887</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="2">
-        <v>39948</v>
+        <v>40130</v>
       </c>
       <c r="B5">
         <v>2009</v>
@@ -468,29 +474,29 @@
         <v>2010</v>
       </c>
       <c r="E5">
-        <v>-0.2451976371230291</v>
+        <v>-0.4782015746048418</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="2">
-        <v>40130</v>
+        <v>40310</v>
       </c>
       <c r="B6">
-        <v>2009</v>
+        <v>2010</v>
       </c>
       <c r="C6">
-        <v>-0.5555135891318952</v>
+        <v>0.169534172659791</v>
       </c>
       <c r="D6">
-        <v>2010</v>
+        <v>2011</v>
       </c>
       <c r="E6">
-        <v>0.2972988696328782</v>
+        <v>-0.03968684591929561</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="2">
-        <v>40310</v>
+        <v>40494</v>
       </c>
       <c r="B7">
         <v>2010</v>
@@ -502,29 +508,29 @@
         <v>2011</v>
       </c>
       <c r="E7">
-        <v>1.212115489820365</v>
+        <v>1.324233212457782</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="2">
-        <v>40494</v>
+        <v>40676</v>
       </c>
       <c r="B8">
-        <v>2010</v>
+        <v>2011</v>
       </c>
       <c r="C8">
-        <v>0.8442071301477228</v>
+        <v>1.032338390744236</v>
       </c>
       <c r="D8">
-        <v>2011</v>
+        <v>2012</v>
       </c>
       <c r="E8">
-        <v>1.013480763294794</v>
+        <v>0.3765075513336269</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="2">
-        <v>40676</v>
+        <v>40862</v>
       </c>
       <c r="B9">
         <v>2011</v>
@@ -536,29 +542,29 @@
         <v>2012</v>
       </c>
       <c r="E9">
-        <v>0.3626630030113764</v>
+        <v>0.7478380109886329</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="2">
-        <v>40862</v>
+        <v>41044</v>
       </c>
       <c r="B10">
-        <v>2011</v>
+        <v>2012</v>
       </c>
       <c r="C10">
-        <v>1.122475521884692</v>
+        <v>-0.1937612543835177</v>
       </c>
       <c r="D10">
-        <v>2012</v>
+        <v>2013</v>
       </c>
       <c r="E10">
-        <v>-0.4258007569310829</v>
+        <v>0.6066710853121382</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="2">
-        <v>41044</v>
+        <v>41228</v>
       </c>
       <c r="B11">
         <v>2012</v>
@@ -570,29 +576,29 @@
         <v>2013</v>
       </c>
       <c r="E11">
-        <v>-0.7218300370884001</v>
+        <v>-0.2445716668737163</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="2">
-        <v>41228</v>
+        <v>41409</v>
       </c>
       <c r="B12">
-        <v>2012</v>
+        <v>2013</v>
       </c>
       <c r="C12">
-        <v>-0.578174579726376</v>
+        <v>-0.8331679621937482</v>
       </c>
       <c r="D12">
-        <v>2013</v>
+        <v>2014</v>
       </c>
       <c r="E12">
-        <v>-0.7514559363454909</v>
+        <v>-0.3970496740026364</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="2">
-        <v>41409</v>
+        <v>41592</v>
       </c>
       <c r="B13">
         <v>2013</v>
@@ -604,29 +610,29 @@
         <v>2014</v>
       </c>
       <c r="E13">
-        <v>-0.07607154651957382</v>
+        <v>-0.2617076051026235</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="2">
-        <v>41592</v>
+        <v>41774</v>
       </c>
       <c r="B14">
-        <v>2013</v>
+        <v>2014</v>
       </c>
       <c r="C14">
-        <v>-0.7492845378401558</v>
+        <v>0.1273541662098365</v>
       </c>
       <c r="D14">
-        <v>2014</v>
+        <v>2015</v>
       </c>
       <c r="E14">
-        <v>0.2199740425759433</v>
+        <v>-0.4865818826308876</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="2">
-        <v>41774</v>
+        <v>41957</v>
       </c>
       <c r="B15">
         <v>2014</v>
@@ -638,29 +644,29 @@
         <v>2015</v>
       </c>
       <c r="E15">
-        <v>-0.184453991189526</v>
+        <v>-0.100009932057743</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="2">
-        <v>41957</v>
+        <v>42137</v>
       </c>
       <c r="B16">
-        <v>2014</v>
+        <v>2015</v>
       </c>
       <c r="C16">
-        <v>0.2751437421933511</v>
+        <v>-0.08273351073040391</v>
       </c>
       <c r="D16">
-        <v>2015</v>
+        <v>2016</v>
       </c>
       <c r="E16">
-        <v>-0.08253785766044741</v>
+        <v>-0.01252079199893785</v>
       </c>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" s="2">
-        <v>42137</v>
+        <v>42321</v>
       </c>
       <c r="B17">
         <v>2015</v>
@@ -672,29 +678,29 @@
         <v>2016</v>
       </c>
       <c r="E17">
-        <v>0.3631938889236741</v>
+        <v>0.3000376062062493</v>
       </c>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="2">
-        <v>42321</v>
+        <v>42503</v>
       </c>
       <c r="B18">
-        <v>2015</v>
+        <v>2016</v>
       </c>
       <c r="C18">
-        <v>0.07468705617190707</v>
+        <v>-0.1151820594382569</v>
       </c>
       <c r="D18">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="E18">
-        <v>-0.05493014849097255</v>
+        <v>0.07348980370169844</v>
       </c>
     </row>
     <row r="19" spans="1:5">
       <c r="A19" s="2">
-        <v>42503</v>
+        <v>42689</v>
       </c>
       <c r="B19">
         <v>2016</v>
@@ -706,29 +712,29 @@
         <v>2017</v>
       </c>
       <c r="E19">
-        <v>0.1249812328300459</v>
+        <v>0.1740313431290996</v>
       </c>
     </row>
     <row r="20" spans="1:5">
       <c r="A20" s="2">
-        <v>42689</v>
+        <v>42867</v>
       </c>
       <c r="B20">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="C20">
-        <v>-0.05493014849097255</v>
+        <v>0.157394256377752</v>
       </c>
       <c r="D20">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="E20">
-        <v>0.1772374095820428</v>
+        <v>0.06194937150048041</v>
       </c>
     </row>
     <row r="21" spans="1:5">
       <c r="A21" s="2">
-        <v>42867</v>
+        <v>43053</v>
       </c>
       <c r="B21">
         <v>2017</v>
@@ -740,63 +746,63 @@
         <v>2018</v>
       </c>
       <c r="E21">
-        <v>0.2464114370821502</v>
+        <v>0.3390041783450259</v>
       </c>
     </row>
     <row r="22" spans="1:5">
       <c r="A22" s="2">
-        <v>43053</v>
+        <v>43145</v>
       </c>
       <c r="B22">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="C22">
-        <v>0.2820931576894115</v>
+        <v>0.2895071529679827</v>
       </c>
       <c r="D22">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="E22">
-        <v>0.4722128445998619</v>
+        <v>0.1190486358061627</v>
       </c>
     </row>
     <row r="23" spans="1:5">
       <c r="A23" s="2">
-        <v>43145</v>
+        <v>43235</v>
       </c>
       <c r="B23">
         <v>2018</v>
       </c>
       <c r="C23">
-        <v>0.3858180453838456</v>
+        <v>0.3426151435189873</v>
       </c>
       <c r="D23">
         <v>2019</v>
       </c>
       <c r="E23">
-        <v>0.207570107975763</v>
+        <v>0.1686730364466316</v>
       </c>
     </row>
     <row r="24" spans="1:5">
       <c r="A24" s="2">
-        <v>43235</v>
+        <v>43326</v>
       </c>
       <c r="B24">
         <v>2018</v>
       </c>
       <c r="C24">
-        <v>0.1945700812221007</v>
+        <v>0.187607693984293</v>
       </c>
       <c r="D24">
         <v>2019</v>
       </c>
       <c r="E24">
-        <v>0.007490141202270983</v>
+        <v>0.02358181985058216</v>
       </c>
     </row>
     <row r="25" spans="1:5">
       <c r="A25" s="2">
-        <v>43326</v>
+        <v>43418</v>
       </c>
       <c r="B25">
         <v>2018</v>
@@ -808,63 +814,63 @@
         <v>2019</v>
       </c>
       <c r="E25">
-        <v>0.2374675790670411</v>
+        <v>0.2210188332817387</v>
       </c>
     </row>
     <row r="26" spans="1:5">
       <c r="A26" s="2">
-        <v>43418</v>
+        <v>43510</v>
       </c>
       <c r="B26">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="C26">
-        <v>0.2343541283920114</v>
+        <v>0.3712693419885671</v>
       </c>
       <c r="D26">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="E26">
-        <v>0.33359684781058</v>
+        <v>0.3003887663412641</v>
       </c>
     </row>
     <row r="27" spans="1:5">
       <c r="A27" s="2">
-        <v>43510</v>
+        <v>43600</v>
       </c>
       <c r="B27">
         <v>2019</v>
       </c>
       <c r="C27">
-        <v>0.186480910314879</v>
+        <v>0.1598952850611068</v>
       </c>
       <c r="D27">
         <v>2020</v>
       </c>
       <c r="E27">
-        <v>0.007785039500074475</v>
+        <v>0.132465972367557</v>
       </c>
     </row>
     <row r="28" spans="1:5">
       <c r="A28" s="2">
-        <v>43600</v>
+        <v>43691</v>
       </c>
       <c r="B28">
         <v>2019</v>
       </c>
       <c r="C28">
-        <v>-0.0007133001605263978</v>
+        <v>-0.02097628618118463</v>
       </c>
       <c r="D28">
         <v>2020</v>
       </c>
       <c r="E28">
-        <v>-0.1199330684587996</v>
+        <v>-0.1339126064348495</v>
       </c>
     </row>
     <row r="29" spans="1:5">
       <c r="A29" s="2">
-        <v>43691</v>
+        <v>43783</v>
       </c>
       <c r="B29">
         <v>2019</v>
@@ -876,63 +882,63 @@
         <v>2020</v>
       </c>
       <c r="E29">
-        <v>-0.1185160685694409</v>
+        <v>-0.09571633453315798</v>
       </c>
     </row>
     <row r="30" spans="1:5">
       <c r="A30" s="2">
-        <v>43783</v>
+        <v>43875</v>
       </c>
       <c r="B30">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="C30">
-        <v>-0.009430310228020211</v>
+        <v>-0.03054415496863694</v>
       </c>
       <c r="D30">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="E30">
-        <v>-0.09195392075255215</v>
+        <v>0.035598638033707</v>
       </c>
     </row>
     <row r="31" spans="1:5">
       <c r="A31" s="2">
-        <v>43875</v>
+        <v>43966</v>
       </c>
       <c r="B31">
         <v>2020</v>
       </c>
       <c r="C31">
-        <v>-0.7531433808722343</v>
+        <v>-0.4923796969465988</v>
       </c>
       <c r="D31">
         <v>2021</v>
       </c>
       <c r="E31">
-        <v>-0.2237910902102569</v>
+        <v>-0.3459257698102514</v>
       </c>
     </row>
     <row r="32" spans="1:5">
       <c r="A32" s="2">
-        <v>43966</v>
+        <v>44068</v>
       </c>
       <c r="B32">
         <v>2020</v>
       </c>
       <c r="C32">
-        <v>-2.594017828322792</v>
+        <v>-2.657403949513992</v>
       </c>
       <c r="D32">
         <v>2021</v>
       </c>
       <c r="E32">
-        <v>2.126320849439001</v>
+        <v>-2.423328265806446</v>
       </c>
     </row>
     <row r="33" spans="1:5">
       <c r="A33" s="2">
-        <v>44068</v>
+        <v>44159</v>
       </c>
       <c r="B33">
         <v>2020</v>
@@ -944,63 +950,63 @@
         <v>2021</v>
       </c>
       <c r="E33">
-        <v>0.07817184560396928</v>
+        <v>-1.49562970548649</v>
       </c>
     </row>
     <row r="34" spans="1:5">
       <c r="A34" s="2">
-        <v>44159</v>
+        <v>44251</v>
       </c>
       <c r="B34">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="C34">
-        <v>-2.657403949513992</v>
+        <v>-0.2885033948250459</v>
       </c>
       <c r="D34">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="E34">
-        <v>-1.0544282406034</v>
+        <v>-0.599348850912329</v>
       </c>
     </row>
     <row r="35" spans="1:5">
       <c r="A35" s="2">
-        <v>44251</v>
+        <v>44341</v>
       </c>
       <c r="B35">
         <v>2021</v>
       </c>
       <c r="C35">
-        <v>-0.3190555674682627</v>
+        <v>-0.5121403324772844</v>
       </c>
       <c r="D35">
         <v>2022</v>
       </c>
       <c r="E35">
-        <v>-0.507168233081734</v>
+        <v>-1.073589070820447</v>
       </c>
     </row>
     <row r="36" spans="1:5">
       <c r="A36" s="2">
-        <v>44341</v>
+        <v>44432</v>
       </c>
       <c r="B36">
         <v>2021</v>
       </c>
       <c r="C36">
-        <v>-0.5726882163857971</v>
+        <v>-0.3096364143617802</v>
       </c>
       <c r="D36">
         <v>2022</v>
       </c>
       <c r="E36">
-        <v>-0.4385391043360887</v>
+        <v>-0.3018961902350958</v>
       </c>
     </row>
     <row r="37" spans="1:5">
       <c r="A37" s="2">
-        <v>44432</v>
+        <v>44525</v>
       </c>
       <c r="B37">
         <v>2021</v>
@@ -1012,63 +1018,63 @@
         <v>2022</v>
       </c>
       <c r="E37">
-        <v>0.3880187947925107</v>
+        <v>-0.1048501255800471</v>
       </c>
     </row>
     <row r="38" spans="1:5">
       <c r="A38" s="2">
-        <v>44525</v>
+        <v>44617</v>
       </c>
       <c r="B38">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="C38">
-        <v>-0.3096364143617802</v>
+        <v>-0.2588455356339781</v>
       </c>
       <c r="D38">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="E38">
-        <v>0.5763850579771912</v>
+        <v>-1.151120647939763</v>
       </c>
     </row>
     <row r="39" spans="1:5">
       <c r="A39" s="2">
-        <v>44617</v>
+        <v>44706</v>
       </c>
       <c r="B39">
         <v>2022</v>
       </c>
       <c r="C39">
-        <v>0.1019287759377319</v>
+        <v>-0.2454721753057276</v>
       </c>
       <c r="D39">
         <v>2023</v>
       </c>
       <c r="E39">
-        <v>0.479844425366438</v>
+        <v>-1.238905350026021</v>
       </c>
     </row>
     <row r="40" spans="1:5">
       <c r="A40" s="2">
-        <v>44706</v>
+        <v>44798</v>
       </c>
       <c r="B40">
         <v>2022</v>
       </c>
       <c r="C40">
-        <v>-0.09402823344024647</v>
+        <v>-0.1730430455425092</v>
       </c>
       <c r="D40">
         <v>2023</v>
       </c>
       <c r="E40">
-        <v>0.8200243578187161</v>
+        <v>-0.8943276391025989</v>
       </c>
     </row>
     <row r="41" spans="1:5">
       <c r="A41" s="2">
-        <v>44798</v>
+        <v>44890</v>
       </c>
       <c r="B41">
         <v>2022</v>
@@ -1080,63 +1086,63 @@
         <v>2023</v>
       </c>
       <c r="E41">
-        <v>0.1247342831339759</v>
+        <v>0.9692952624595019</v>
       </c>
     </row>
     <row r="42" spans="1:5">
       <c r="A42" s="2">
-        <v>44890</v>
+        <v>44981</v>
       </c>
       <c r="B42">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="C42">
-        <v>-0.1730430455425092</v>
+        <v>0.8644693227634503</v>
       </c>
       <c r="D42">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="E42">
-        <v>0.5522675992340798</v>
+        <v>0.7652102000489602</v>
       </c>
     </row>
     <row r="43" spans="1:5">
       <c r="A43" s="2">
-        <v>44981</v>
+        <v>45071</v>
       </c>
       <c r="B43">
         <v>2023</v>
       </c>
       <c r="C43">
-        <v>0.7070687814112464</v>
+        <v>0.7038634017465073</v>
       </c>
       <c r="D43">
         <v>2024</v>
       </c>
       <c r="E43">
-        <v>-0.06692696028677281</v>
+        <v>0.4406734233171727</v>
       </c>
     </row>
     <row r="44" spans="1:5">
       <c r="A44" s="2">
-        <v>45071</v>
+        <v>45163</v>
       </c>
       <c r="B44">
         <v>2023</v>
       </c>
       <c r="C44">
-        <v>0.6846709791617167</v>
+        <v>0.6376744206510576</v>
       </c>
       <c r="D44">
         <v>2024</v>
       </c>
       <c r="E44">
-        <v>0.1200849649013458</v>
+        <v>-0.09128981027868299</v>
       </c>
     </row>
     <row r="45" spans="1:5">
       <c r="A45" s="2">
-        <v>45163</v>
+        <v>45254</v>
       </c>
       <c r="B45">
         <v>2023</v>
@@ -1148,63 +1154,63 @@
         <v>2024</v>
       </c>
       <c r="E45">
-        <v>0.006074511539599925</v>
+        <v>0.1544084105021826</v>
       </c>
     </row>
     <row r="46" spans="1:5">
       <c r="A46" s="2">
-        <v>45254</v>
+        <v>45345</v>
       </c>
       <c r="B46">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="C46">
-        <v>0.6376744206510576</v>
+        <v>0.001611361207976003</v>
       </c>
       <c r="D46">
-        <v>2024</v>
+        <v>2025</v>
       </c>
       <c r="E46">
-        <v>0.2066385473532328</v>
+        <v>0.01799217181808199</v>
       </c>
     </row>
     <row r="47" spans="1:5">
       <c r="A47" s="2">
-        <v>45345</v>
+        <v>45436</v>
       </c>
       <c r="B47">
         <v>2024</v>
       </c>
       <c r="C47">
-        <v>0.003513949268807437</v>
+        <v>0.20168190406884</v>
       </c>
       <c r="D47">
         <v>2025</v>
       </c>
       <c r="E47">
-        <v>-0.0971648574240036</v>
+        <v>0.3613321345859122</v>
       </c>
     </row>
     <row r="48" spans="1:5">
       <c r="A48" s="2">
-        <v>45436</v>
+        <v>45534</v>
       </c>
       <c r="B48">
         <v>2024</v>
       </c>
       <c r="C48">
-        <v>0.2212143863870253</v>
+        <v>0.1856341247700399</v>
       </c>
       <c r="D48">
         <v>2025</v>
       </c>
       <c r="E48">
-        <v>0.3049434951572172</v>
+        <v>0.4108497965175983</v>
       </c>
     </row>
     <row r="49" spans="1:5">
       <c r="A49" s="2">
-        <v>45534</v>
+        <v>45618</v>
       </c>
       <c r="B49">
         <v>2024</v>
@@ -1216,75 +1222,58 @@
         <v>2025</v>
       </c>
       <c r="E49">
-        <v>0.0965383357124816</v>
+        <v>0.3997355152047577</v>
       </c>
     </row>
     <row r="50" spans="1:5">
       <c r="A50" s="2">
-        <v>45618</v>
+        <v>45713</v>
       </c>
       <c r="B50">
-        <v>2024</v>
+        <v>2025</v>
       </c>
       <c r="C50">
-        <v>0.1856341247700399</v>
+        <v>0.08117592553187336</v>
       </c>
       <c r="D50">
-        <v>2025</v>
+        <v>2026</v>
       </c>
       <c r="E50">
-        <v>0.1605926478871034</v>
+        <v>0.3069836986764551</v>
       </c>
     </row>
     <row r="51" spans="1:5">
       <c r="A51" s="2">
-        <v>45713</v>
+        <v>45800</v>
       </c>
       <c r="B51">
         <v>2025</v>
       </c>
       <c r="C51">
-        <v>-0.01148140173768963</v>
+        <v>-0.06418790329880686</v>
       </c>
       <c r="D51">
         <v>2026</v>
       </c>
       <c r="E51">
-        <v>-0.3077774797124899</v>
+        <v>-0.08988642825158433</v>
       </c>
     </row>
     <row r="52" spans="1:5">
       <c r="A52" s="2">
-        <v>45800</v>
+        <v>45891</v>
       </c>
       <c r="B52">
         <v>2025</v>
       </c>
       <c r="C52">
-        <v>-0.09492420427399395</v>
+        <v>-0.09450306168263811</v>
       </c>
       <c r="D52">
         <v>2026</v>
       </c>
       <c r="E52">
-        <v>-0.2765110737940724</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5">
-      <c r="A53" s="2">
-        <v>45891</v>
-      </c>
-      <c r="B53">
-        <v>2025</v>
-      </c>
-      <c r="C53">
-        <v>-0.09450306168263811</v>
-      </c>
-      <c r="D53">
-        <v>2026</v>
-      </c>
-      <c r="E53">
-        <v>-0.2733642003528658</v>
+        <v>-0.3000102673190841</v>
       </c>
     </row>
   </sheetData>

--- a/0_0_Data/3_Naive_Forecaster_Data/1_YoY_Forecast_Vectors/forecast_series_TRDBAL_yoy_AVERAGE_10_9_full.xlsx
+++ b/0_0_Data/3_Naive_Forecaster_Data/1_YoY_Forecast_Vectors/forecast_series_TRDBAL_yoy_AVERAGE_10_9_full.xlsx
@@ -392,7 +392,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E52"/>
+  <dimension ref="A1:E53"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -417,863 +417,886 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="2">
-        <v>39583</v>
+        <v>39400</v>
       </c>
       <c r="B2">
+        <v>2007</v>
+      </c>
+      <c r="C2">
+        <v>2.070003986395053</v>
+      </c>
+      <c r="D2">
         <v>2008</v>
       </c>
-      <c r="D2">
-        <v>2009</v>
-      </c>
       <c r="E2">
-        <v>-0.3422723562191532</v>
+        <v>0.6967455006573253</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="2">
-        <v>39765</v>
+        <v>39583</v>
       </c>
       <c r="B3">
         <v>2008</v>
       </c>
+      <c r="C3">
+        <v>0.9380533998416762</v>
+      </c>
       <c r="D3">
         <v>2009</v>
       </c>
       <c r="E3">
-        <v>0.4944284391569687</v>
+        <v>1.155022846258058</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="2">
-        <v>39948</v>
+        <v>39765</v>
       </c>
       <c r="B4">
+        <v>2008</v>
+      </c>
+      <c r="C4">
+        <v>0.517569958955022</v>
+      </c>
+      <c r="D4">
         <v>2009</v>
       </c>
-      <c r="C4">
-        <v>-0.5037688924316441</v>
-      </c>
-      <c r="D4">
-        <v>2010</v>
-      </c>
       <c r="E4">
-        <v>-0.467076459743887</v>
+        <v>-0.6367039903686034</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="2">
-        <v>40130</v>
+        <v>39948</v>
       </c>
       <c r="B5">
         <v>2009</v>
       </c>
       <c r="C5">
-        <v>-0.5555135891318952</v>
+        <v>-4.857241224140929</v>
       </c>
       <c r="D5">
         <v>2010</v>
       </c>
       <c r="E5">
-        <v>-0.4782015746048418</v>
+        <v>-1.691674259276643</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="2">
-        <v>40310</v>
+        <v>40130</v>
       </c>
       <c r="B6">
+        <v>2009</v>
+      </c>
+      <c r="C6">
+        <v>-3.956152295564896</v>
+      </c>
+      <c r="D6">
         <v>2010</v>
       </c>
-      <c r="C6">
-        <v>0.169534172659791</v>
-      </c>
-      <c r="D6">
-        <v>2011</v>
-      </c>
       <c r="E6">
-        <v>-0.03968684591929561</v>
+        <v>-0.6950853968889392</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="2">
-        <v>40494</v>
+        <v>40310</v>
       </c>
       <c r="B7">
         <v>2010</v>
       </c>
       <c r="C7">
-        <v>0.8442071301477228</v>
+        <v>0.3625742673738941</v>
       </c>
       <c r="D7">
         <v>2011</v>
       </c>
       <c r="E7">
-        <v>1.324233212457782</v>
+        <v>-1.432000573345915</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="2">
-        <v>40676</v>
+        <v>40494</v>
       </c>
       <c r="B8">
+        <v>2010</v>
+      </c>
+      <c r="C8">
+        <v>1.234995474941392</v>
+      </c>
+      <c r="D8">
         <v>2011</v>
       </c>
-      <c r="C8">
-        <v>1.032338390744236</v>
-      </c>
-      <c r="D8">
-        <v>2012</v>
-      </c>
       <c r="E8">
-        <v>0.3765075513336269</v>
+        <v>-0.2098161877568061</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="2">
-        <v>40862</v>
+        <v>40676</v>
       </c>
       <c r="B9">
         <v>2011</v>
       </c>
       <c r="C9">
-        <v>1.122475521884692</v>
+        <v>0.9965309787904442</v>
       </c>
       <c r="D9">
         <v>2012</v>
       </c>
       <c r="E9">
-        <v>0.7478380109886329</v>
+        <v>-0.02552935725171901</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="2">
-        <v>41044</v>
+        <v>40862</v>
       </c>
       <c r="B10">
+        <v>2011</v>
+      </c>
+      <c r="C10">
+        <v>0.899360810820804</v>
+      </c>
+      <c r="D10">
         <v>2012</v>
       </c>
-      <c r="C10">
-        <v>-0.1937612543835177</v>
-      </c>
-      <c r="D10">
-        <v>2013</v>
-      </c>
       <c r="E10">
-        <v>0.6066710853121382</v>
+        <v>1.205741443109987</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="2">
-        <v>41228</v>
+        <v>41044</v>
       </c>
       <c r="B11">
         <v>2012</v>
       </c>
       <c r="C11">
-        <v>-0.578174579726376</v>
+        <v>0.6836026627130565</v>
       </c>
       <c r="D11">
         <v>2013</v>
       </c>
       <c r="E11">
-        <v>-0.2445716668737163</v>
+        <v>1.279644059586871</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="2">
-        <v>41409</v>
+        <v>41228</v>
       </c>
       <c r="B12">
+        <v>2012</v>
+      </c>
+      <c r="C12">
+        <v>0.9010266119894084</v>
+      </c>
+      <c r="D12">
         <v>2013</v>
       </c>
-      <c r="C12">
-        <v>-0.8331679621937482</v>
-      </c>
-      <c r="D12">
-        <v>2014</v>
-      </c>
       <c r="E12">
-        <v>-0.3970496740026364</v>
+        <v>1.531699207045123</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="2">
-        <v>41592</v>
+        <v>41409</v>
       </c>
       <c r="B13">
         <v>2013</v>
       </c>
       <c r="C13">
-        <v>-0.7492845378401558</v>
+        <v>0.2336505480021955</v>
       </c>
       <c r="D13">
         <v>2014</v>
       </c>
       <c r="E13">
-        <v>-0.2617076051026235</v>
+        <v>0.4758549421990166</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="2">
-        <v>41774</v>
+        <v>41592</v>
       </c>
       <c r="B14">
+        <v>2013</v>
+      </c>
+      <c r="C14">
+        <v>0.02019328874804938</v>
+      </c>
+      <c r="D14">
         <v>2014</v>
       </c>
-      <c r="C14">
-        <v>0.1273541662098365</v>
-      </c>
-      <c r="D14">
-        <v>2015</v>
-      </c>
       <c r="E14">
-        <v>-0.4865818826308876</v>
+        <v>-0.1259279434590921</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="2">
-        <v>41957</v>
+        <v>41774</v>
       </c>
       <c r="B15">
         <v>2014</v>
       </c>
       <c r="C15">
-        <v>0.2751437421933511</v>
+        <v>-0.1446844164011307</v>
       </c>
       <c r="D15">
         <v>2015</v>
       </c>
       <c r="E15">
-        <v>-0.100009932057743</v>
+        <v>-0.03923323971219972</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="2">
-        <v>42137</v>
+        <v>41957</v>
       </c>
       <c r="B16">
+        <v>2014</v>
+      </c>
+      <c r="C16">
+        <v>0.1729981757035093</v>
+      </c>
+      <c r="D16">
         <v>2015</v>
       </c>
-      <c r="C16">
-        <v>-0.08273351073040391</v>
-      </c>
-      <c r="D16">
-        <v>2016</v>
-      </c>
       <c r="E16">
-        <v>-0.01252079199893785</v>
+        <v>0.1749537368921361</v>
       </c>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" s="2">
-        <v>42321</v>
+        <v>42137</v>
       </c>
       <c r="B17">
         <v>2015</v>
       </c>
       <c r="C17">
-        <v>0.07468705617190707</v>
+        <v>-0.1588690085687849</v>
       </c>
       <c r="D17">
         <v>2016</v>
       </c>
       <c r="E17">
-        <v>0.3000376062062493</v>
+        <v>-0.4617525814883283</v>
       </c>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="2">
-        <v>42503</v>
+        <v>42321</v>
       </c>
       <c r="B18">
+        <v>2015</v>
+      </c>
+      <c r="C18">
+        <v>0.09752710595589686</v>
+      </c>
+      <c r="D18">
         <v>2016</v>
       </c>
-      <c r="C18">
-        <v>-0.1151820594382569</v>
-      </c>
-      <c r="D18">
-        <v>2017</v>
-      </c>
       <c r="E18">
-        <v>0.07348980370169844</v>
+        <v>-0.001769149545471915</v>
       </c>
     </row>
     <row r="19" spans="1:5">
       <c r="A19" s="2">
-        <v>42689</v>
+        <v>42503</v>
       </c>
       <c r="B19">
         <v>2016</v>
       </c>
       <c r="C19">
-        <v>-0.05493014849097255</v>
+        <v>-0.5438176183081733</v>
       </c>
       <c r="D19">
         <v>2017</v>
       </c>
       <c r="E19">
-        <v>0.1740313431290996</v>
+        <v>0.01247916696665019</v>
       </c>
     </row>
     <row r="20" spans="1:5">
       <c r="A20" s="2">
-        <v>42867</v>
+        <v>42689</v>
       </c>
       <c r="B20">
+        <v>2016</v>
+      </c>
+      <c r="C20">
+        <v>-0.5280591151586633</v>
+      </c>
+      <c r="D20">
         <v>2017</v>
       </c>
-      <c r="C20">
-        <v>0.157394256377752</v>
-      </c>
-      <c r="D20">
-        <v>2018</v>
-      </c>
       <c r="E20">
-        <v>0.06194937150048041</v>
+        <v>-0.05116199209030947</v>
       </c>
     </row>
     <row r="21" spans="1:5">
       <c r="A21" s="2">
-        <v>43053</v>
+        <v>42867</v>
       </c>
       <c r="B21">
         <v>2017</v>
       </c>
       <c r="C21">
-        <v>0.2820931576894115</v>
+        <v>-0.006876704825709012</v>
       </c>
       <c r="D21">
         <v>2018</v>
       </c>
       <c r="E21">
-        <v>0.3390041783450259</v>
+        <v>-0.05033169102144353</v>
       </c>
     </row>
     <row r="22" spans="1:5">
       <c r="A22" s="2">
-        <v>43145</v>
+        <v>43053</v>
       </c>
       <c r="B22">
+        <v>2017</v>
+      </c>
+      <c r="C22">
+        <v>0.07201851318385799</v>
+      </c>
+      <c r="D22">
         <v>2018</v>
       </c>
-      <c r="C22">
-        <v>0.2895071529679827</v>
-      </c>
-      <c r="D22">
-        <v>2019</v>
-      </c>
       <c r="E22">
-        <v>0.1190486358061627</v>
+        <v>0.2735900898381383</v>
       </c>
     </row>
     <row r="23" spans="1:5">
       <c r="A23" s="2">
-        <v>43235</v>
+        <v>43145</v>
       </c>
       <c r="B23">
         <v>2018</v>
       </c>
       <c r="C23">
-        <v>0.3426151435189873</v>
+        <v>0.6840863075407766</v>
       </c>
       <c r="D23">
         <v>2019</v>
       </c>
       <c r="E23">
-        <v>0.1686730364466316</v>
+        <v>-0.0399940003999788</v>
       </c>
     </row>
     <row r="24" spans="1:5">
       <c r="A24" s="2">
-        <v>43326</v>
+        <v>43235</v>
       </c>
       <c r="B24">
         <v>2018</v>
       </c>
       <c r="C24">
-        <v>0.187607693984293</v>
+        <v>0.6718983809452572</v>
       </c>
       <c r="D24">
         <v>2019</v>
       </c>
       <c r="E24">
-        <v>0.02358181985058216</v>
+        <v>0.08750765859864007</v>
       </c>
     </row>
     <row r="25" spans="1:5">
       <c r="A25" s="2">
-        <v>43418</v>
+        <v>43326</v>
       </c>
       <c r="B25">
         <v>2018</v>
       </c>
       <c r="C25">
-        <v>0.2343541283920114</v>
+        <v>0.4580297089606056</v>
       </c>
       <c r="D25">
         <v>2019</v>
       </c>
       <c r="E25">
-        <v>0.2210188332817387</v>
+        <v>-0.09562311357415032</v>
       </c>
     </row>
     <row r="26" spans="1:5">
       <c r="A26" s="2">
-        <v>43510</v>
+        <v>43418</v>
       </c>
       <c r="B26">
+        <v>2018</v>
+      </c>
+      <c r="C26">
+        <v>0.3727661260635617</v>
+      </c>
+      <c r="D26">
         <v>2019</v>
       </c>
-      <c r="C26">
-        <v>0.3712693419885671</v>
-      </c>
-      <c r="D26">
-        <v>2020</v>
-      </c>
       <c r="E26">
-        <v>0.3003887663412641</v>
+        <v>-0.9505847809128332</v>
       </c>
     </row>
     <row r="27" spans="1:5">
       <c r="A27" s="2">
-        <v>43600</v>
+        <v>43510</v>
       </c>
       <c r="B27">
         <v>2019</v>
       </c>
       <c r="C27">
-        <v>0.1598952850611068</v>
+        <v>-0.8803054679952349</v>
       </c>
       <c r="D27">
         <v>2020</v>
       </c>
       <c r="E27">
-        <v>0.132465972367557</v>
+        <v>-0.2797061371759946</v>
       </c>
     </row>
     <row r="28" spans="1:5">
       <c r="A28" s="2">
-        <v>43691</v>
+        <v>43600</v>
       </c>
       <c r="B28">
         <v>2019</v>
       </c>
       <c r="C28">
-        <v>-0.02097628618118463</v>
+        <v>-0.6347897325981511</v>
       </c>
       <c r="D28">
         <v>2020</v>
       </c>
       <c r="E28">
-        <v>-0.1339126064348495</v>
+        <v>0.01241557525981651</v>
       </c>
     </row>
     <row r="29" spans="1:5">
       <c r="A29" s="2">
-        <v>43783</v>
+        <v>43691</v>
       </c>
       <c r="B29">
         <v>2019</v>
       </c>
       <c r="C29">
-        <v>-0.009430310228020211</v>
+        <v>-0.8089889044073151</v>
       </c>
       <c r="D29">
         <v>2020</v>
       </c>
       <c r="E29">
-        <v>-0.09571633453315798</v>
+        <v>-0.2234428210501016</v>
       </c>
     </row>
     <row r="30" spans="1:5">
       <c r="A30" s="2">
-        <v>43875</v>
+        <v>43783</v>
       </c>
       <c r="B30">
+        <v>2019</v>
+      </c>
+      <c r="C30">
+        <v>-0.801759526476209</v>
+      </c>
+      <c r="D30">
         <v>2020</v>
       </c>
-      <c r="C30">
-        <v>-0.03054415496863694</v>
-      </c>
-      <c r="D30">
-        <v>2021</v>
-      </c>
       <c r="E30">
-        <v>0.035598638033707</v>
+        <v>0.047674034857903</v>
       </c>
     </row>
     <row r="31" spans="1:5">
       <c r="A31" s="2">
-        <v>43966</v>
+        <v>43875</v>
       </c>
       <c r="B31">
         <v>2020</v>
       </c>
       <c r="C31">
-        <v>-0.4923796969465988</v>
+        <v>-0.3388987799285426</v>
       </c>
       <c r="D31">
         <v>2021</v>
       </c>
       <c r="E31">
-        <v>-0.3459257698102514</v>
+        <v>-0.1599040255974349</v>
       </c>
     </row>
     <row r="32" spans="1:5">
       <c r="A32" s="2">
-        <v>44068</v>
+        <v>43966</v>
       </c>
       <c r="B32">
         <v>2020</v>
       </c>
       <c r="C32">
-        <v>-2.657403949513992</v>
+        <v>-0.7158018152081724</v>
       </c>
       <c r="D32">
         <v>2021</v>
       </c>
       <c r="E32">
-        <v>-2.423328265806446</v>
+        <v>-0.76158050880345</v>
       </c>
     </row>
     <row r="33" spans="1:5">
       <c r="A33" s="2">
-        <v>44159</v>
+        <v>44068</v>
       </c>
       <c r="B33">
         <v>2020</v>
       </c>
       <c r="C33">
-        <v>-2.657403949513992</v>
+        <v>-1.503583188367719</v>
       </c>
       <c r="D33">
         <v>2021</v>
       </c>
       <c r="E33">
-        <v>-1.49562970548649</v>
+        <v>-0.8119518419852034</v>
       </c>
     </row>
     <row r="34" spans="1:5">
       <c r="A34" s="2">
-        <v>44251</v>
+        <v>44159</v>
       </c>
       <c r="B34">
+        <v>2020</v>
+      </c>
+      <c r="C34">
+        <v>-1.103489789942047</v>
+      </c>
+      <c r="D34">
         <v>2021</v>
       </c>
-      <c r="C34">
-        <v>-0.2885033948250459</v>
-      </c>
-      <c r="D34">
-        <v>2022</v>
-      </c>
       <c r="E34">
-        <v>-0.599348850912329</v>
+        <v>1.605918384453009</v>
       </c>
     </row>
     <row r="35" spans="1:5">
       <c r="A35" s="2">
-        <v>44341</v>
+        <v>44251</v>
       </c>
       <c r="B35">
         <v>2021</v>
       </c>
       <c r="C35">
-        <v>-0.5121403324772844</v>
+        <v>2.893881462220338</v>
       </c>
       <c r="D35">
         <v>2022</v>
       </c>
       <c r="E35">
-        <v>-1.073589070820447</v>
+        <v>1.049469534781022</v>
       </c>
     </row>
     <row r="36" spans="1:5">
       <c r="A36" s="2">
-        <v>44432</v>
+        <v>44341</v>
       </c>
       <c r="B36">
         <v>2021</v>
       </c>
       <c r="C36">
-        <v>-0.3096364143617802</v>
+        <v>1.22331349480691</v>
       </c>
       <c r="D36">
         <v>2022</v>
       </c>
       <c r="E36">
-        <v>-0.3018961902350958</v>
+        <v>-0.5204428773059266</v>
       </c>
     </row>
     <row r="37" spans="1:5">
       <c r="A37" s="2">
-        <v>44525</v>
+        <v>44432</v>
       </c>
       <c r="B37">
         <v>2021</v>
       </c>
       <c r="C37">
-        <v>-0.3096364143617802</v>
+        <v>1.067534122491809</v>
       </c>
       <c r="D37">
         <v>2022</v>
       </c>
       <c r="E37">
-        <v>-0.1048501255800471</v>
+        <v>-0.2393417156003941</v>
       </c>
     </row>
     <row r="38" spans="1:5">
       <c r="A38" s="2">
-        <v>44617</v>
+        <v>44525</v>
       </c>
       <c r="B38">
+        <v>2021</v>
+      </c>
+      <c r="C38">
+        <v>0.9704846793491928</v>
+      </c>
+      <c r="D38">
         <v>2022</v>
       </c>
-      <c r="C38">
-        <v>-0.2588455356339781</v>
-      </c>
-      <c r="D38">
-        <v>2023</v>
-      </c>
       <c r="E38">
-        <v>-1.151120647939763</v>
+        <v>-0.8255212498362474</v>
       </c>
     </row>
     <row r="39" spans="1:5">
       <c r="A39" s="2">
-        <v>44706</v>
+        <v>44617</v>
       </c>
       <c r="B39">
         <v>2022</v>
       </c>
       <c r="C39">
-        <v>-0.2454721753057276</v>
+        <v>-0.4754331870696404</v>
       </c>
       <c r="D39">
         <v>2023</v>
       </c>
       <c r="E39">
-        <v>-1.238905350026021</v>
+        <v>-0.3593817194810001</v>
       </c>
     </row>
     <row r="40" spans="1:5">
       <c r="A40" s="2">
-        <v>44798</v>
+        <v>44706</v>
       </c>
       <c r="B40">
         <v>2022</v>
       </c>
       <c r="C40">
-        <v>-0.1730430455425092</v>
+        <v>-1.508346016334061</v>
       </c>
       <c r="D40">
         <v>2023</v>
       </c>
       <c r="E40">
-        <v>-0.8943276391025989</v>
+        <v>-1.034042971854776</v>
       </c>
     </row>
     <row r="41" spans="1:5">
       <c r="A41" s="2">
-        <v>44890</v>
+        <v>44798</v>
       </c>
       <c r="B41">
         <v>2022</v>
       </c>
       <c r="C41">
-        <v>-0.1730430455425092</v>
+        <v>-0.9795431199870586</v>
       </c>
       <c r="D41">
         <v>2023</v>
       </c>
       <c r="E41">
-        <v>0.9692952624595019</v>
+        <v>-0.476291821405983</v>
       </c>
     </row>
     <row r="42" spans="1:5">
       <c r="A42" s="2">
-        <v>44981</v>
+        <v>44890</v>
       </c>
       <c r="B42">
+        <v>2022</v>
+      </c>
+      <c r="C42">
+        <v>-0.7009264669202708</v>
+      </c>
+      <c r="D42">
         <v>2023</v>
       </c>
-      <c r="C42">
-        <v>0.8644693227634503</v>
-      </c>
-      <c r="D42">
-        <v>2024</v>
-      </c>
       <c r="E42">
-        <v>0.7652102000489602</v>
+        <v>0.6624163082313173</v>
       </c>
     </row>
     <row r="43" spans="1:5">
       <c r="A43" s="2">
-        <v>45071</v>
+        <v>44981</v>
       </c>
       <c r="B43">
         <v>2023</v>
       </c>
       <c r="C43">
-        <v>0.7038634017465073</v>
+        <v>0.01219381132999686</v>
       </c>
       <c r="D43">
         <v>2024</v>
       </c>
       <c r="E43">
-        <v>0.4406734233171727</v>
+        <v>-0.1052155539149613</v>
       </c>
     </row>
     <row r="44" spans="1:5">
       <c r="A44" s="2">
-        <v>45163</v>
+        <v>45071</v>
       </c>
       <c r="B44">
         <v>2023</v>
       </c>
       <c r="C44">
-        <v>0.6376744206510576</v>
+        <v>0.2857158074419441</v>
       </c>
       <c r="D44">
         <v>2024</v>
       </c>
       <c r="E44">
-        <v>-0.09128981027868299</v>
+        <v>-0.2434890887128005</v>
       </c>
     </row>
     <row r="45" spans="1:5">
       <c r="A45" s="2">
-        <v>45254</v>
+        <v>45163</v>
       </c>
       <c r="B45">
         <v>2023</v>
       </c>
       <c r="C45">
-        <v>0.6376744206510576</v>
+        <v>0.1829021030556488</v>
       </c>
       <c r="D45">
         <v>2024</v>
       </c>
       <c r="E45">
-        <v>0.1544084105021826</v>
+        <v>-0.3407920741581916</v>
       </c>
     </row>
     <row r="46" spans="1:5">
       <c r="A46" s="2">
-        <v>45345</v>
+        <v>45254</v>
       </c>
       <c r="B46">
+        <v>2023</v>
+      </c>
+      <c r="C46">
+        <v>0.3928252664241905</v>
+      </c>
+      <c r="D46">
         <v>2024</v>
       </c>
-      <c r="C46">
-        <v>0.001611361207976003</v>
-      </c>
-      <c r="D46">
-        <v>2025</v>
-      </c>
       <c r="E46">
-        <v>0.01799217181808199</v>
+        <v>0.302295480375836</v>
       </c>
     </row>
     <row r="47" spans="1:5">
       <c r="A47" s="2">
-        <v>45436</v>
+        <v>45345</v>
       </c>
       <c r="B47">
         <v>2024</v>
       </c>
       <c r="C47">
-        <v>0.20168190406884</v>
+        <v>0.2614828632771848</v>
       </c>
       <c r="D47">
         <v>2025</v>
       </c>
       <c r="E47">
-        <v>0.3613321345859122</v>
+        <v>0.1003260477960621</v>
       </c>
     </row>
     <row r="48" spans="1:5">
       <c r="A48" s="2">
-        <v>45534</v>
+        <v>45436</v>
       </c>
       <c r="B48">
         <v>2024</v>
       </c>
       <c r="C48">
-        <v>0.1856341247700399</v>
+        <v>1.050311853611596</v>
       </c>
       <c r="D48">
         <v>2025</v>
       </c>
       <c r="E48">
-        <v>0.4108497965175983</v>
+        <v>0.6547560647617745</v>
       </c>
     </row>
     <row r="49" spans="1:5">
       <c r="A49" s="2">
-        <v>45618</v>
+        <v>45534</v>
       </c>
       <c r="B49">
         <v>2024</v>
       </c>
       <c r="C49">
-        <v>0.1856341247700399</v>
+        <v>0.6979546684258597</v>
       </c>
       <c r="D49">
         <v>2025</v>
       </c>
       <c r="E49">
-        <v>0.3997355152047577</v>
+        <v>0.1438580449789839</v>
       </c>
     </row>
     <row r="50" spans="1:5">
       <c r="A50" s="2">
-        <v>45713</v>
+        <v>45618</v>
       </c>
       <c r="B50">
+        <v>2024</v>
+      </c>
+      <c r="C50">
+        <v>0.3224026462283813</v>
+      </c>
+      <c r="D50">
         <v>2025</v>
       </c>
-      <c r="C50">
-        <v>0.08117592553187336</v>
-      </c>
-      <c r="D50">
-        <v>2026</v>
-      </c>
       <c r="E50">
-        <v>0.3069836986764551</v>
+        <v>-0.7618983399156787</v>
       </c>
     </row>
     <row r="51" spans="1:5">
       <c r="A51" s="2">
-        <v>45800</v>
+        <v>45713</v>
       </c>
       <c r="B51">
         <v>2025</v>
       </c>
       <c r="C51">
-        <v>-0.06418790329880686</v>
+        <v>-2.451829860015453</v>
       </c>
       <c r="D51">
         <v>2026</v>
       </c>
       <c r="E51">
-        <v>-0.08988642825158433</v>
+        <v>-0.5076775133253331</v>
       </c>
     </row>
     <row r="52" spans="1:5">
       <c r="A52" s="2">
-        <v>45891</v>
+        <v>45800</v>
       </c>
       <c r="B52">
         <v>2025</v>
       </c>
       <c r="C52">
-        <v>-0.09450306168263811</v>
+        <v>-1.467296258526263</v>
       </c>
       <c r="D52">
         <v>2026</v>
       </c>
       <c r="E52">
-        <v>-0.3000102673190841</v>
+        <v>-0.02957675682233596</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5">
+      <c r="A53" s="2">
+        <v>45891</v>
+      </c>
+      <c r="B53">
+        <v>2025</v>
+      </c>
+      <c r="C53">
+        <v>-2.11737366557071</v>
+      </c>
+      <c r="D53">
+        <v>2026</v>
+      </c>
+      <c r="E53">
+        <v>-0.9529168788645181</v>
       </c>
     </row>
   </sheetData>

--- a/0_0_Data/3_Naive_Forecaster_Data/1_YoY_Forecast_Vectors/forecast_series_TRDBAL_yoy_AVERAGE_10_9_full.xlsx
+++ b/0_0_Data/3_Naive_Forecaster_Data/1_YoY_Forecast_Vectors/forecast_series_TRDBAL_yoy_AVERAGE_10_9_full.xlsx
@@ -950,13 +950,13 @@
         <v>2020</v>
       </c>
       <c r="C33">
-        <v>-1.503583188367719</v>
+        <v>-2.1087047631976</v>
       </c>
       <c r="D33">
         <v>2021</v>
       </c>
       <c r="E33">
-        <v>-0.8119518419852034</v>
+        <v>-3.14817505165822</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -973,7 +973,7 @@
         <v>2021</v>
       </c>
       <c r="E34">
-        <v>1.605918384453009</v>
+        <v>0.9394308447247202</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -984,13 +984,13 @@
         <v>2021</v>
       </c>
       <c r="C35">
-        <v>2.893881462220338</v>
+        <v>1.840506831365407</v>
       </c>
       <c r="D35">
         <v>2022</v>
       </c>
       <c r="E35">
-        <v>1.049469534781022</v>
+        <v>0.04000600039999469</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -1001,13 +1001,13 @@
         <v>2021</v>
       </c>
       <c r="C36">
-        <v>1.22331349480691</v>
+        <v>1.576357831383701</v>
       </c>
       <c r="D36">
         <v>2022</v>
       </c>
       <c r="E36">
-        <v>-0.5204428773059266</v>
+        <v>-0.03826480485497052</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -1018,13 +1018,13 @@
         <v>2021</v>
       </c>
       <c r="C37">
-        <v>1.067534122491809</v>
+        <v>0.9319769131822087</v>
       </c>
       <c r="D37">
         <v>2022</v>
       </c>
       <c r="E37">
-        <v>-0.2393417156003941</v>
+        <v>-0.7143539453189685</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -1041,7 +1041,7 @@
         <v>2022</v>
       </c>
       <c r="E38">
-        <v>-0.8255212498362474</v>
+        <v>-0.8754609427830462</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -1052,13 +1052,13 @@
         <v>2022</v>
       </c>
       <c r="C39">
-        <v>-0.4754331870696404</v>
+        <v>-0.05255054327949482</v>
       </c>
       <c r="D39">
         <v>2023</v>
       </c>
       <c r="E39">
-        <v>-0.3593817194810001</v>
+        <v>0.2001500500062425</v>
       </c>
     </row>
     <row r="40" spans="1:5">
@@ -1069,13 +1069,13 @@
         <v>2022</v>
       </c>
       <c r="C40">
-        <v>-1.508346016334061</v>
+        <v>-1.488707312182591</v>
       </c>
       <c r="D40">
         <v>2023</v>
       </c>
       <c r="E40">
-        <v>-1.034042971854776</v>
+        <v>-1.062239424572275</v>
       </c>
     </row>
     <row r="41" spans="1:5">
@@ -1086,13 +1086,13 @@
         <v>2022</v>
       </c>
       <c r="C41">
-        <v>-0.9795431199870586</v>
+        <v>-1.002933118524796</v>
       </c>
       <c r="D41">
         <v>2023</v>
       </c>
       <c r="E41">
-        <v>-0.476291821405983</v>
+        <v>-0.8142357075366591</v>
       </c>
     </row>
     <row r="42" spans="1:5">
@@ -1109,7 +1109,7 @@
         <v>2023</v>
       </c>
       <c r="E42">
-        <v>0.6624163082313173</v>
+        <v>-0.4769809874827891</v>
       </c>
     </row>
     <row r="43" spans="1:5">
@@ -1120,13 +1120,13 @@
         <v>2023</v>
       </c>
       <c r="C43">
-        <v>0.01219381132999686</v>
+        <v>0.2082795303714136</v>
       </c>
       <c r="D43">
         <v>2024</v>
       </c>
       <c r="E43">
-        <v>-0.1052155539149613</v>
+        <v>1.165055762672784</v>
       </c>
     </row>
     <row r="44" spans="1:5">
@@ -1137,13 +1137,13 @@
         <v>2023</v>
       </c>
       <c r="C44">
-        <v>0.2857158074419441</v>
+        <v>0.3474924879233177</v>
       </c>
       <c r="D44">
         <v>2024</v>
       </c>
       <c r="E44">
-        <v>-0.2434890887128005</v>
+        <v>0.06147841237726936</v>
       </c>
     </row>
     <row r="45" spans="1:5">
@@ -1154,13 +1154,13 @@
         <v>2023</v>
       </c>
       <c r="C45">
-        <v>0.1829021030556488</v>
+        <v>0.1825990691692869</v>
       </c>
       <c r="D45">
         <v>2024</v>
       </c>
       <c r="E45">
-        <v>-0.3407920741581916</v>
+        <v>-0.5312671580391282</v>
       </c>
     </row>
     <row r="46" spans="1:5">
@@ -1177,7 +1177,7 @@
         <v>2024</v>
       </c>
       <c r="E46">
-        <v>0.302295480375836</v>
+        <v>0.1224005736915057</v>
       </c>
     </row>
     <row r="47" spans="1:5">
@@ -1188,13 +1188,13 @@
         <v>2024</v>
       </c>
       <c r="C47">
-        <v>0.2614828632771848</v>
+        <v>0.3423504836346236</v>
       </c>
       <c r="D47">
         <v>2025</v>
       </c>
       <c r="E47">
-        <v>0.1003260477960621</v>
+        <v>0.1200540108008186</v>
       </c>
     </row>
     <row r="48" spans="1:5">
@@ -1205,13 +1205,13 @@
         <v>2024</v>
       </c>
       <c r="C48">
-        <v>1.050311853611596</v>
+        <v>0.8934739937295655</v>
       </c>
       <c r="D48">
         <v>2025</v>
       </c>
       <c r="E48">
-        <v>0.6547560647617745</v>
+        <v>0.4129745242490879</v>
       </c>
     </row>
     <row r="49" spans="1:5">
@@ -1222,13 +1222,13 @@
         <v>2024</v>
       </c>
       <c r="C49">
-        <v>0.6979546684258597</v>
+        <v>0.7146010879610865</v>
       </c>
       <c r="D49">
         <v>2025</v>
       </c>
       <c r="E49">
-        <v>0.1438580449789839</v>
+        <v>0.1950507282544311</v>
       </c>
     </row>
     <row r="50" spans="1:5">
@@ -1245,7 +1245,7 @@
         <v>2025</v>
       </c>
       <c r="E50">
-        <v>-0.7618983399156787</v>
+        <v>-0.9749878381047017</v>
       </c>
     </row>
     <row r="51" spans="1:5">
@@ -1256,13 +1256,13 @@
         <v>2025</v>
       </c>
       <c r="C51">
-        <v>-2.451829860015453</v>
+        <v>-2.355806475145772</v>
       </c>
       <c r="D51">
         <v>2026</v>
       </c>
       <c r="E51">
-        <v>-0.5076775133253331</v>
+        <v>-0.5189868785143714</v>
       </c>
     </row>
     <row r="52" spans="1:5">
@@ -1273,13 +1273,13 @@
         <v>2025</v>
       </c>
       <c r="C52">
-        <v>-1.467296258526263</v>
+        <v>-1.372720900450852</v>
       </c>
       <c r="D52">
         <v>2026</v>
       </c>
       <c r="E52">
-        <v>-0.02957675682233596</v>
+        <v>0.2610638872259319</v>
       </c>
     </row>
     <row r="53" spans="1:5">
@@ -1290,13 +1290,13 @@
         <v>2025</v>
       </c>
       <c r="C53">
-        <v>-2.11737366557071</v>
+        <v>-2.130770575613827</v>
       </c>
       <c r="D53">
         <v>2026</v>
       </c>
       <c r="E53">
-        <v>-0.9529168788645181</v>
+        <v>-0.7692530117426877</v>
       </c>
     </row>
   </sheetData>

--- a/0_0_Data/3_Naive_Forecaster_Data/1_YoY_Forecast_Vectors/forecast_series_TRDBAL_yoy_AVERAGE_10_9_full.xlsx
+++ b/0_0_Data/3_Naive_Forecaster_Data/1_YoY_Forecast_Vectors/forecast_series_TRDBAL_yoy_AVERAGE_10_9_full.xlsx
@@ -422,14 +422,8 @@
       <c r="B2">
         <v>2007</v>
       </c>
-      <c r="C2">
-        <v>2.070003986395053</v>
-      </c>
       <c r="D2">
         <v>2008</v>
-      </c>
-      <c r="E2">
-        <v>0.6967455006573253</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -439,9 +433,6 @@
       <c r="B3">
         <v>2008</v>
       </c>
-      <c r="C3">
-        <v>0.9380533998416762</v>
-      </c>
       <c r="D3">
         <v>2009</v>
       </c>
@@ -456,14 +447,11 @@
       <c r="B4">
         <v>2008</v>
       </c>
-      <c r="C4">
-        <v>0.517569958955022</v>
-      </c>
       <c r="D4">
         <v>2009</v>
       </c>
       <c r="E4">
-        <v>-0.6367039903686034</v>
+        <v>-0.6367039903685923</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -474,7 +462,7 @@
         <v>2009</v>
       </c>
       <c r="C5">
-        <v>-4.857241224140929</v>
+        <v>-4.857241224140941</v>
       </c>
       <c r="D5">
         <v>2010</v>
@@ -491,7 +479,7 @@
         <v>2009</v>
       </c>
       <c r="C6">
-        <v>-3.956152295564896</v>
+        <v>-3.956152295564885</v>
       </c>
       <c r="D6">
         <v>2010</v>
@@ -508,7 +496,7 @@
         <v>2010</v>
       </c>
       <c r="C7">
-        <v>0.3625742673738941</v>
+        <v>0.3625742673738719</v>
       </c>
       <c r="D7">
         <v>2011</v>
@@ -525,13 +513,13 @@
         <v>2010</v>
       </c>
       <c r="C8">
-        <v>1.234995474941392</v>
+        <v>1.234995474941436</v>
       </c>
       <c r="D8">
         <v>2011</v>
       </c>
       <c r="E8">
-        <v>-0.2098161877568061</v>
+        <v>-0.209816187756795</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -559,7 +547,7 @@
         <v>2011</v>
       </c>
       <c r="C10">
-        <v>0.899360810820804</v>
+        <v>0.8993608108207818</v>
       </c>
       <c r="D10">
         <v>2012</v>
@@ -576,7 +564,7 @@
         <v>2012</v>
       </c>
       <c r="C11">
-        <v>0.6836026627130565</v>
+        <v>0.6836026627130787</v>
       </c>
       <c r="D11">
         <v>2013</v>
@@ -610,7 +598,7 @@
         <v>2013</v>
       </c>
       <c r="C13">
-        <v>0.2336505480021955</v>
+        <v>0.2336505480021511</v>
       </c>
       <c r="D13">
         <v>2014</v>
@@ -627,7 +615,7 @@
         <v>2013</v>
       </c>
       <c r="C14">
-        <v>0.02019328874804938</v>
+        <v>0.02019328874802717</v>
       </c>
       <c r="D14">
         <v>2014</v>
@@ -650,7 +638,7 @@
         <v>2015</v>
       </c>
       <c r="E15">
-        <v>-0.03923323971219972</v>
+        <v>-0.03923323971221082</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -678,13 +666,13 @@
         <v>2015</v>
       </c>
       <c r="C17">
-        <v>-0.1588690085687849</v>
+        <v>-0.1588690085688071</v>
       </c>
       <c r="D17">
         <v>2016</v>
       </c>
       <c r="E17">
-        <v>-0.4617525814883283</v>
+        <v>-0.4617525814883061</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -701,7 +689,7 @@
         <v>2016</v>
       </c>
       <c r="E18">
-        <v>-0.001769149545471915</v>
+        <v>-0.001769149545449711</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -712,13 +700,13 @@
         <v>2016</v>
       </c>
       <c r="C19">
-        <v>-0.5438176183081733</v>
+        <v>-0.5438176183081955</v>
       </c>
       <c r="D19">
         <v>2017</v>
       </c>
       <c r="E19">
-        <v>0.01247916696665019</v>
+        <v>0.01247916696662799</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -746,7 +734,7 @@
         <v>2017</v>
       </c>
       <c r="C21">
-        <v>-0.006876704825709012</v>
+        <v>-0.006876704825686808</v>
       </c>
       <c r="D21">
         <v>2018</v>
@@ -763,7 +751,7 @@
         <v>2017</v>
       </c>
       <c r="C22">
-        <v>0.07201851318385799</v>
+        <v>0.0720185131838802</v>
       </c>
       <c r="D22">
         <v>2018</v>
@@ -780,7 +768,7 @@
         <v>2018</v>
       </c>
       <c r="C23">
-        <v>0.6840863075407766</v>
+        <v>0.6840863075407544</v>
       </c>
       <c r="D23">
         <v>2019</v>
@@ -837,7 +825,7 @@
         <v>2019</v>
       </c>
       <c r="E26">
-        <v>-0.9505847809128332</v>
+        <v>-0.950584780912811</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -848,13 +836,13 @@
         <v>2019</v>
       </c>
       <c r="C27">
-        <v>-0.8803054679952349</v>
+        <v>-0.8803054679952238</v>
       </c>
       <c r="D27">
         <v>2020</v>
       </c>
       <c r="E27">
-        <v>-0.2797061371759946</v>
+        <v>-0.2797061371760057</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -865,13 +853,13 @@
         <v>2019</v>
       </c>
       <c r="C28">
-        <v>-0.6347897325981511</v>
+        <v>-0.63478973259814</v>
       </c>
       <c r="D28">
         <v>2020</v>
       </c>
       <c r="E28">
-        <v>0.01241557525981651</v>
+        <v>0.01241557525979431</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -882,13 +870,13 @@
         <v>2019</v>
       </c>
       <c r="C29">
-        <v>-0.8089889044073151</v>
+        <v>-0.8089889044073373</v>
       </c>
       <c r="D29">
         <v>2020</v>
       </c>
       <c r="E29">
-        <v>-0.2234428210501016</v>
+        <v>-0.2234428210500905</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -899,13 +887,13 @@
         <v>2019</v>
       </c>
       <c r="C30">
-        <v>-0.801759526476209</v>
+        <v>-0.8017595264762423</v>
       </c>
       <c r="D30">
         <v>2020</v>
       </c>
       <c r="E30">
-        <v>0.047674034857903</v>
+        <v>0.0476740348578808</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -916,13 +904,13 @@
         <v>2020</v>
       </c>
       <c r="C31">
-        <v>-0.3388987799285426</v>
+        <v>-0.3388987799285315</v>
       </c>
       <c r="D31">
         <v>2021</v>
       </c>
       <c r="E31">
-        <v>-0.1599040255974349</v>
+        <v>-0.1599040255974238</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -933,13 +921,13 @@
         <v>2020</v>
       </c>
       <c r="C32">
-        <v>-0.7158018152081724</v>
+        <v>-0.7158018152081613</v>
       </c>
       <c r="D32">
         <v>2021</v>
       </c>
       <c r="E32">
-        <v>-0.76158050880345</v>
+        <v>-0.7615805088034833</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -1001,7 +989,7 @@
         <v>2021</v>
       </c>
       <c r="C36">
-        <v>1.576357831383701</v>
+        <v>1.576357831383679</v>
       </c>
       <c r="D36">
         <v>2022</v>
@@ -1018,13 +1006,13 @@
         <v>2021</v>
       </c>
       <c r="C37">
-        <v>0.9319769131822087</v>
+        <v>0.9319769131821865</v>
       </c>
       <c r="D37">
         <v>2022</v>
       </c>
       <c r="E37">
-        <v>-0.7143539453189685</v>
+        <v>-0.7143539453189907</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -1035,13 +1023,13 @@
         <v>2021</v>
       </c>
       <c r="C38">
-        <v>0.9704846793491928</v>
+        <v>0.9704846793491706</v>
       </c>
       <c r="D38">
         <v>2022</v>
       </c>
       <c r="E38">
-        <v>-0.8754609427830462</v>
+        <v>-0.8754609427830351</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -1052,7 +1040,7 @@
         <v>2022</v>
       </c>
       <c r="C39">
-        <v>-0.05255054327949482</v>
+        <v>-0.05255054327948372</v>
       </c>
       <c r="D39">
         <v>2023</v>
@@ -1069,13 +1057,13 @@
         <v>2022</v>
       </c>
       <c r="C40">
-        <v>-1.488707312182591</v>
+        <v>-1.488707312182613</v>
       </c>
       <c r="D40">
         <v>2023</v>
       </c>
       <c r="E40">
-        <v>-1.062239424572275</v>
+        <v>-1.062239424572287</v>
       </c>
     </row>
     <row r="41" spans="1:5">
@@ -1086,13 +1074,13 @@
         <v>2022</v>
       </c>
       <c r="C41">
-        <v>-1.002933118524796</v>
+        <v>-1.002933118524785</v>
       </c>
       <c r="D41">
         <v>2023</v>
       </c>
       <c r="E41">
-        <v>-0.8142357075366591</v>
+        <v>-0.8142357075366813</v>
       </c>
     </row>
     <row r="42" spans="1:5">
@@ -1160,7 +1148,7 @@
         <v>2024</v>
       </c>
       <c r="E45">
-        <v>-0.5312671580391282</v>
+        <v>-0.5312671580391171</v>
       </c>
     </row>
     <row r="46" spans="1:5">
@@ -1171,7 +1159,7 @@
         <v>2023</v>
       </c>
       <c r="C46">
-        <v>0.3928252664241905</v>
+        <v>0.3928252664241683</v>
       </c>
       <c r="D46">
         <v>2024</v>
@@ -1194,7 +1182,7 @@
         <v>2025</v>
       </c>
       <c r="E47">
-        <v>0.1200540108008186</v>
+        <v>0.1200540108007964</v>
       </c>
     </row>
     <row r="48" spans="1:5">
@@ -1205,13 +1193,13 @@
         <v>2024</v>
       </c>
       <c r="C48">
-        <v>0.8934739937295655</v>
+        <v>0.8934739937295433</v>
       </c>
       <c r="D48">
         <v>2025</v>
       </c>
       <c r="E48">
-        <v>0.4129745242490879</v>
+        <v>0.4129745242491101</v>
       </c>
     </row>
     <row r="49" spans="1:5">
@@ -1222,7 +1210,7 @@
         <v>2024</v>
       </c>
       <c r="C49">
-        <v>0.7146010879610865</v>
+        <v>0.7146010879610643</v>
       </c>
       <c r="D49">
         <v>2025</v>
@@ -1239,13 +1227,13 @@
         <v>2024</v>
       </c>
       <c r="C50">
-        <v>0.3224026462283813</v>
+        <v>0.3224026462283369</v>
       </c>
       <c r="D50">
         <v>2025</v>
       </c>
       <c r="E50">
-        <v>-0.9749878381047017</v>
+        <v>-0.9749878381046684</v>
       </c>
     </row>
     <row r="51" spans="1:5">
@@ -1256,7 +1244,7 @@
         <v>2025</v>
       </c>
       <c r="C51">
-        <v>-2.355806475145772</v>
+        <v>-2.355806475145761</v>
       </c>
       <c r="D51">
         <v>2026</v>
@@ -1273,7 +1261,7 @@
         <v>2025</v>
       </c>
       <c r="C52">
-        <v>-1.372720900450852</v>
+        <v>-1.372720900450863</v>
       </c>
       <c r="D52">
         <v>2026</v>

--- a/0_0_Data/3_Naive_Forecaster_Data/1_YoY_Forecast_Vectors/forecast_series_TRDBAL_yoy_AVERAGE_10_9_full.xlsx
+++ b/0_0_Data/3_Naive_Forecaster_Data/1_YoY_Forecast_Vectors/forecast_series_TRDBAL_yoy_AVERAGE_10_9_full.xlsx
@@ -392,7 +392,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E53"/>
+  <dimension ref="A1:E54"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1287,6 +1287,23 @@
         <v>-0.7692530117426877</v>
       </c>
     </row>
+    <row r="54" spans="1:5">
+      <c r="A54" s="2">
+        <v>45986</v>
+      </c>
+      <c r="B54">
+        <v>2025</v>
+      </c>
+      <c r="C54">
+        <v>-2.06674933094535</v>
+      </c>
+      <c r="D54">
+        <v>2026</v>
+      </c>
+      <c r="E54">
+        <v>-0.9969640812590996</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
